--- a/MPOS web appication .xlsx
+++ b/MPOS web appication .xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="81">
   <si>
     <t xml:space="preserve">                                                                                                                                                      URL:-https://stagingapp.karmadude.in/create-order?category=307</t>
   </si>
@@ -62,7 +62,7 @@
 This creates confusion for the user and negatively impacts the overall user experience.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mdium </t>
+    <t xml:space="preserve">Medium </t>
   </si>
   <si>
     <t>Go to product listing or product detail page
@@ -133,6 +133,188 @@
     <t>Variant-based products are shown by default.
 The selected Standard Base Product option is ignored</t>
   </si>
+  <si>
+    <t>Cart items missing after deleting order and navigating back to Order Creation page</t>
+  </si>
+  <si>
+    <t>During Order Creation, products are added to the cart successfully. However, after navigating to the Order page and deleting the created order, when the user returns to the Order Creation page, the previously added products are no longer visible in the cart.
+The cart state should be retained and should not reset automatically after deleting an order.</t>
+  </si>
+  <si>
+    <t>Go to Order Creation page
+Add one or more products to the cart
+Proceed to the Order page
+Delete the created order
+Navigate back to the Order Creation page</t>
+  </si>
+  <si>
+    <t>Previously added products should still be visible in the cart when navigating back to the Order Creation page, even after deleting the order.</t>
+  </si>
+  <si>
+    <t>The cart becomes empty, and previously added products are removed automatically after deleting the order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High </t>
+  </si>
+  <si>
+    <t>Cart popup does not open automatically when a product is added</t>
+  </si>
+  <si>
+    <t>When a customer adds a product to the cart, the cart popup/modal is not triggered automatically. As a result, the customer cannot quickly view or proceed with their cart, slowing down the order placement process. The cart popup should appear immediately after adding a product to improve user experience.</t>
+  </si>
+  <si>
+    <t>Navigate to the product listing or product details page.
+Add a product to the cart
+Observe that the cart popup/modal does not appear.</t>
+  </si>
+  <si>
+    <t>The cart popup/modal should open automatically when a product is added, allowing the customer to quickly review their cart and proceed to checkout.</t>
+  </si>
+  <si>
+    <t>The cart popup/modal does not open automatically. The user has to manually navigate to the cart to view added items.</t>
+  </si>
+  <si>
+    <t>Standard product details do not open for editing in Order Creation</t>
+  </si>
+  <si>
+    <t>In the Order Creation flow, when a product is a standard product, clicking on the product should open its details page or editable view. However, currently, clicking on a standard product does not open its details, preventing the user from editing product information during order creation.</t>
+  </si>
+  <si>
+    <t>Navigate to the Order Creation page
+Add a standard product to the order
+Click on the added standard product</t>
+  </si>
+  <si>
+    <t>Clicking on a standard product should open the product details view, allowing the user to edit product information during order creation.</t>
+  </si>
+  <si>
+    <t>Clicking on the standard product does not open its details, and the product cannot be edited.</t>
+  </si>
+  <si>
+    <t>Screen flickers when navigating from Create Order page to Manage Product page</t>
+  </si>
+  <si>
+    <t>When navigating from the Create Order page to the Manage Product page, the screen flickers briefly during the transition. This creates a poor user experience and should not occur during normal page navigation.</t>
+  </si>
+  <si>
+    <t>Open the Create Order page
+Navigate to the Manage Product page
+Observe the screen during page transition</t>
+  </si>
+  <si>
+    <t>Page navigation should be smooth without any screen flickering or visual disturbance.</t>
+  </si>
+  <si>
+    <t>The screen flickers momentarily while navigating from Create Order to Manage Product.</t>
+  </si>
+  <si>
+    <t>Inconsistent casing of product variant name between Product View and Create Order pages</t>
+  </si>
+  <si>
+    <t>While adding a product variant, if the variant name is entered in lowercase, it is automatically saved with the first letter capitalized. On the Product View page, the variant name is displayed with the first letter capitalized as expected. However, on the Create Order page, the same product/variant name is displayed in lowercase.
+This results in inconsistent data representation across different screens.</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Go to Manage Product
+Add or edit a product variant
+Enter the variant name in lowercase (e.g., small pack)
+Save the product
+Open the Product View page and note the variant name
+Navigate to the Create Order page and check the same product/variant name</t>
+  </si>
+  <si>
+    <t>The product/variant name should be displayed consistently across all pages, following the same capitalization format.</t>
+  </si>
+  <si>
+    <t>Product View page shows the variant name with the first letter capitalized
+Create Order page shows the same variant name in lowercase</t>
+  </si>
+  <si>
+    <t>Stock information delay after editing and saving a product</t>
+  </si>
+  <si>
+    <t>After editing a product and saving the changes, the stock information does not appear immediately. There is an approximate delay of 3 seconds before the stock is displayed. This delay should not occur, as it may confuse users and give the impression that the update was not successful.</t>
+  </si>
+  <si>
+    <t>Navigate to the Manage Product page
+Edit any existing product
+Update product details and save the changes
+Observe the stock information after saving</t>
+  </si>
+  <si>
+    <t>Stock information should be displayed immediately after saving product changes without any noticeable delay.</t>
+  </si>
+  <si>
+    <t>Stock information is not displayed for approximately 3 seconds after saving the product.</t>
+  </si>
+  <si>
+    <t>Low Stock Alert value allows entry greater than Total Stock Quantity</t>
+  </si>
+  <si>
+    <t>In the product variant configuration, the Total Stock Quantity is set to 520, but the system allows the Low Stock Alert value to be entered as 3000, which is greater than the total available stock.
+This should not be allowed. The Low Stock Alert value must always be less than or equal to the Total Stock Quantity to ensure accurate stock monitoring and alerts.</t>
+  </si>
+  <si>
+    <t>Go to Manage Product
+Add or edit a product variant
+Set Total Stock Quantity to 520
+Enter Low Stock Alert value as 3000
+Save the product</t>
+  </si>
+  <si>
+    <t>The system should restrict the Low Stock Alert value to be less than or equal to the Total Stock Quantity and display a validation error if a higher value is entered.</t>
+  </si>
+  <si>
+    <t>The system allows the Low Stock Alert value to be saved even when it is greater than the Total Stock Quantity.</t>
+  </si>
+  <si>
+    <t>Low stock indication not shown when stock quantity is below minimum stock alert</t>
+  </si>
+  <si>
+    <t>For a product variant, the Total Stock Quantity is 52 packets, and the Minimum Stock Alert value is set to 210. Since the available stock is below the configured alert threshold, the system should clearly indicate that the product stock is low.
+However, while viewing the product details, no visual indication or warning message is shown to inform the user about the low stock condition.</t>
+  </si>
+  <si>
+    <t>Go to Manage Product
+Add or edit a product variant
+Set Total Stock Quantity to 52 packets
+Set Minimum Stock Alert to 210
+Save the product
+Open the Product Details / Product View page</t>
+  </si>
+  <si>
+    <t>The system should clearly notify the user that the stock quantity is below the minimum stock alert level
+The product should be visually highlighted (e.g., warning icon, color indicator, or “Low Stock” label)</t>
+  </si>
+  <si>
+    <t>No warning message or visual highlight is shown, even though the stock quantity is below the configured minimum stock alert value.</t>
+  </si>
+  <si>
+    <t>Quantity field allows invalid and excess values when adding product to cart</t>
+  </si>
+  <si>
+    <t>While adding a product to the cart, the Quantity input field allows multiple or invalid values to be entered. Additionally, the system does not restrict the entered quantity based on the available stock.
+This should not be allowed. The user should only be able to enter a single numeric value, and the quantity must not exceed the available stock.</t>
+  </si>
+  <si>
+    <t>Navigate to the Product Listing or Create Order page
+Select a product with limited available stock
+Enter multiple or invalid values in the Quantity field
+Enter a quantity greater than the available stock
+Add the product to the cart</t>
+  </si>
+  <si>
+    <t>The Quantity field should accept only a single numeric value
+The entered quantity should be restricted to available stock only
+A validation message should be shown if the user enters a quantity greater than available stock or invalid input</t>
+  </si>
+  <si>
+    <t>The Quantity field allows multiple/invalid values
+Quantities greater than available stock can be entered and added to the cart</t>
+  </si>
 </sst>
 </file>
 
@@ -146,15 +328,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15.0"/>
+      <sz val="14.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <name val="Georgia"/>
     </font>
     <font>
-      <sz val="15.0"/>
+      <sz val="13.0"/>
       <color theme="1"/>
-      <name val="Inter"/>
+      <name val="Georgia"/>
     </font>
   </fonts>
   <fills count="4">
@@ -183,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -191,10 +372,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -588,40 +772,40 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M6" s="1"/>
@@ -640,40 +824,40 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M7" s="1"/>
@@ -692,40 +876,40 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M8" s="1"/>
@@ -744,18 +928,42 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -772,18 +980,42 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -800,18 +1032,42 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -828,18 +1084,42 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -856,18 +1136,42 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -884,18 +1188,42 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -912,18 +1240,42 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -940,18 +1292,42 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -968,18 +1344,42 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
